--- a/data/api_auto/uu_api/card.xlsx
+++ b/data/api_auto/uu_api/card.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29000" windowHeight="13940"/>
+    <workbookView windowHeight="16760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
     <t>case_module</t>
   </si>
@@ -72,6 +72,57 @@
   </si>
   <si>
     <t>wait</t>
+  </si>
+  <si>
+    <t>预付卡</t>
+  </si>
+  <si>
+    <t>开卡</t>
+  </si>
+  <si>
+    <t>正常开卡</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>/api/forex-jcard/jcard/card/config/list</t>
+  </si>
+  <si>
+    <t>{"authorization":"${token}"}</t>
+  </si>
+  <si>
+    <t>application/json</t>
+  </si>
+  <si>
+    <t>{"powerCardConfigId":"$.data.powerCardConfigId"}</t>
+  </si>
+  <si>
+    <t>{"$.success": true}</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>/api/forex-jcard/jcard/card/v2/active</t>
+  </si>
+  <si>
+    <t>{"powerCardConfigId":"${powerCardConfigId}"}</t>
+  </si>
+  <si>
+    <t>{"powerCardId":"$.data.powerCardId"}</t>
+  </si>
+  <si>
+    <t>/api/forex-jcard/jcard/forex/setEmailOrPhone</t>
+  </si>
+  <si>
+    <t>{"areaNo":"63","contactInfo":"9202771448","powerCardId":"6bc7f0c527ec426083c44e23c74fb1ca"}</t>
+  </si>
+  <si>
+    <t>/api/powercard-service/kyc/getKYCToken</t>
+  </si>
+  <si>
+    <t>{"merchantId":"forex","merchantUserId":"2293","channel":"straitsX"}</t>
   </si>
 </sst>
 </file>
@@ -1060,22 +1111,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomRight" activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="25.4615384615385" style="2" customWidth="1"/>
-    <col min="2" max="2" width="31.2307692307692" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.1538461538462" style="2" customWidth="1"/>
-    <col min="4" max="4" width="42.0769230769231" style="2" customWidth="1"/>
+    <col min="1" max="1" width="16.2307692307692" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.4615384615385" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.1538461538462" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.6153846153846" style="2" customWidth="1"/>
     <col min="5" max="5" width="10.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="9.69230769230769" style="2" customWidth="1"/>
     <col min="7" max="7" width="68.9038461538462" style="2" customWidth="1"/>
@@ -1136,6 +1187,125 @@
         <v>14</v>
       </c>
     </row>
+    <row r="2" ht="34" spans="1:14">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" ht="17" spans="1:14">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" ht="34" spans="1:14">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" ht="34" spans="1:14">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
